--- a/data/trans_orig/P6519-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0900972E-3F58-45A3-96BA-95B7A25A4546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C2FE15-DA37-4174-9417-7A87C4B35BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{678588B3-4C24-4C9D-8358-18C8AB8A9F49}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84F939A4-C0F5-4B8D-84EB-378464E2A73D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="311">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>84,64%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,853 +134,838 @@
     <t>4,98%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>85,05%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
     <t>3,56%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>4,4%</t>
+    <t>4,3%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1395,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145B2DB8-2E4D-4F00-A654-A165B3385386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8975389B-3A59-4EB2-8AB4-1FF4CEE008EB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1672,13 +1657,13 @@
         <v>3202</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1687,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -1702,13 +1687,13 @@
         <v>3202</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,13 +1708,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
@@ -1738,13 +1723,13 @@
         <v>109167</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>255</v>
@@ -1753,18 +1738,18 @@
         <v>274565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1776,13 +1761,13 @@
         <v>214467</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>105</v>
@@ -1791,13 +1776,13 @@
         <v>105805</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>302</v>
@@ -1806,13 +1791,13 @@
         <v>320272</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1812,13 @@
         <v>40566</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1842,13 +1827,13 @@
         <v>17993</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -1857,13 +1842,13 @@
         <v>58559</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1863,13 @@
         <v>9344</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1893,13 +1878,13 @@
         <v>3895</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -1908,13 +1893,13 @@
         <v>13238</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1914,13 @@
         <v>5064</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1944,13 +1929,13 @@
         <v>2158</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1959,13 +1944,13 @@
         <v>7222</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1965,13 @@
         <v>269441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -1995,13 +1980,13 @@
         <v>129850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -2010,18 +1995,18 @@
         <v>399291</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2033,13 +2018,13 @@
         <v>159787</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -2048,13 +2033,13 @@
         <v>88470</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>239</v>
@@ -2063,13 +2048,13 @@
         <v>248258</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2069,13 @@
         <v>9737</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2099,13 +2084,13 @@
         <v>2008</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -2114,13 +2099,13 @@
         <v>11745</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2120,13 @@
         <v>6179</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2150,13 +2135,13 @@
         <v>3110</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2165,13 +2150,13 @@
         <v>9289</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2201,13 +2186,13 @@
         <v>978</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2216,13 +2201,13 @@
         <v>978</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2222,13 @@
         <v>175703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2252,13 +2237,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2267,18 +2252,18 @@
         <v>270270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2290,13 +2275,13 @@
         <v>191371</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -2305,13 +2290,13 @@
         <v>112546</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>303</v>
@@ -2320,13 +2305,13 @@
         <v>303917</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2326,13 @@
         <v>17046</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -2356,13 +2341,13 @@
         <v>17132</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -2371,10 +2356,10 @@
         <v>34178</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>133</v>
@@ -2392,7 +2377,7 @@
         <v>9684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>134</v>
@@ -2407,13 +2392,13 @@
         <v>3055</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2422,13 +2407,13 @@
         <v>12740</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2428,13 @@
         <v>4453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2458,13 +2443,13 @@
         <v>3352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2473,7 +2458,7 @@
         <v>7805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>148</v>
@@ -2494,13 +2479,13 @@
         <v>222554</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2509,13 +2494,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -2524,13 +2509,13 @@
         <v>358639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,13 +2598,13 @@
         <v>1020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2628,13 +2613,13 @@
         <v>4627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2634,13 @@
         <v>854</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2664,13 +2649,13 @@
         <v>4658</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2679,10 +2664,10 @@
         <v>5512</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>173</v>
@@ -2703,7 +2688,7 @@
         <v>174</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>175</v>
@@ -2718,7 +2703,7 @@
         <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>177</v>
@@ -2733,7 +2718,7 @@
         <v>178</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>179</v>
@@ -2751,13 +2736,13 @@
         <v>113031</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2766,13 +2751,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M28" s="7">
         <v>158</v>
@@ -2781,13 +2766,13 @@
         <v>163457</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2819,13 @@
         <v>203138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2840,13 @@
         <v>13433</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2870,13 +2855,13 @@
         <v>11013</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -2885,13 +2870,13 @@
         <v>24446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,10 +2891,10 @@
         <v>7259</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>200</v>
@@ -2921,10 +2906,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>201</v>
@@ -2939,10 +2924,10 @@
         <v>202</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2942,13 @@
         <v>3044</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2972,13 +2957,13 @@
         <v>947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2987,13 +2972,13 @@
         <v>3991</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +2993,13 @@
         <v>156017</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -3023,13 +3008,13 @@
         <v>82817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M33" s="7">
         <v>230</v>
@@ -3038,18 +3023,18 @@
         <v>238834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3061,13 +3046,13 @@
         <v>289148</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H34" s="7">
         <v>149</v>
@@ -3076,13 +3061,13 @@
         <v>161481</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>425</v>
@@ -3091,13 +3076,13 @@
         <v>450630</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,13 +3097,13 @@
         <v>29239</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -3127,13 +3112,13 @@
         <v>9051</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M35" s="7">
         <v>34</v>
@@ -3142,13 +3127,13 @@
         <v>38290</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3148,13 @@
         <v>8167</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3178,13 +3163,13 @@
         <v>5693</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -3193,13 +3178,13 @@
         <v>13860</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3199,13 @@
         <v>7649</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3229,13 +3214,13 @@
         <v>3420</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -3244,13 +3229,13 @@
         <v>11069</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3250,13 @@
         <v>334204</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -3280,13 +3265,13 @@
         <v>179645</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M38" s="7">
         <v>483</v>
@@ -3295,18 +3280,18 @@
         <v>513849</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3318,13 +3303,13 @@
         <v>393111</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H39" s="7">
         <v>176</v>
@@ -3333,13 +3318,13 @@
         <v>184423</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M39" s="7">
         <v>555</v>
@@ -3348,13 +3333,13 @@
         <v>577535</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3354,13 @@
         <v>37237</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H40" s="7">
         <v>29</v>
@@ -3384,13 +3369,13 @@
         <v>29522</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>135</v>
+        <v>257</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>68</v>
@@ -3399,13 +3384,13 @@
         <v>66759</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3405,13 @@
         <v>15089</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H41" s="7">
         <v>11</v>
@@ -3438,10 +3423,10 @@
         <v>31</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M41" s="7">
         <v>26</v>
@@ -3450,13 +3435,13 @@
         <v>26795</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3456,13 @@
         <v>18849</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H42" s="7">
         <v>9</v>
@@ -3486,13 +3471,13 @@
         <v>9459</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M42" s="7">
         <v>27</v>
@@ -3501,13 +3486,13 @@
         <v>28309</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3507,13 @@
         <v>464286</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H43" s="7">
         <v>225</v>
@@ -3537,13 +3522,13 @@
         <v>235111</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M43" s="7">
         <v>676</v>
@@ -3552,13 +3537,13 @@
         <v>699398</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3560,13 @@
         <v>1627279</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>817</v>
@@ -3590,13 +3575,13 @@
         <v>852811</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>2376</v>
@@ -3605,13 +3590,13 @@
         <v>2480090</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3611,13 @@
         <v>164816</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -3641,13 +3626,13 @@
         <v>104429</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M45" s="7">
         <v>260</v>
@@ -3656,13 +3641,13 @@
         <v>269245</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3662,13 @@
         <v>64821</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>301</v>
+        <v>98</v>
       </c>
       <c r="H46" s="7">
         <v>37</v>
@@ -3692,13 +3677,13 @@
         <v>39115</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M46" s="7">
         <v>99</v>
@@ -3707,13 +3692,13 @@
         <v>103936</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3713,13 @@
         <v>43719</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H47" s="7">
         <v>21</v>
@@ -3743,13 +3728,13 @@
         <v>21312</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>309</v>
+        <v>73</v>
       </c>
       <c r="M47" s="7">
         <v>60</v>
@@ -3758,13 +3743,13 @@
         <v>65032</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3764,13 @@
         <v>1900635</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" s="7">
         <v>975</v>
@@ -3794,13 +3779,13 @@
         <v>1017668</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M48" s="7">
         <v>2795</v>
@@ -3809,18 +3794,18 @@
         <v>2918303</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C2FE15-DA37-4174-9417-7A87C4B35BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FEB53EE-D7BF-499F-8CA3-19CE85853438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{84F939A4-C0F5-4B8D-84EB-378464E2A73D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{945E91D5-00A7-4665-A19B-3153AFDF7C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="315">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>84,64%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>8,43%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,793 +134,805 @@
     <t>4,98%</t>
   </si>
   <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
     <t>2,29%</t>
   </si>
   <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
   </si>
   <si>
     <t>2,5%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>85,62%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>3,41%</t>
@@ -932,16 +944,13 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>2,69%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>2,93%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>4,3%</t>
@@ -950,22 +959,25 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>2,85%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1380,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8975389B-3A59-4EB2-8AB4-1FF4CEE008EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE5FE97-7AD9-4C0C-A5D7-76B91F42EF95}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1657,13 +1669,13 @@
         <v>3202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1672,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -1687,13 +1699,13 @@
         <v>3202</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,13 +1720,13 @@
         <v>165398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>97</v>
@@ -1723,13 +1735,13 @@
         <v>109167</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>255</v>
@@ -1738,18 +1750,18 @@
         <v>274565</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1761,13 +1773,13 @@
         <v>214467</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>105</v>
@@ -1776,13 +1788,13 @@
         <v>105805</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>302</v>
@@ -1791,13 +1803,13 @@
         <v>320272</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1824,13 @@
         <v>40566</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1827,13 +1839,13 @@
         <v>17993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -1842,13 +1854,13 @@
         <v>58559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1875,13 @@
         <v>9344</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1878,13 +1890,13 @@
         <v>3895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -1893,13 +1905,13 @@
         <v>13238</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1926,13 @@
         <v>5064</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1929,13 +1941,13 @@
         <v>2158</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -1944,13 +1956,13 @@
         <v>7222</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1977,13 @@
         <v>269441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>128</v>
@@ -1980,13 +1992,13 @@
         <v>129850</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>377</v>
@@ -1995,18 +2007,18 @@
         <v>399291</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2018,13 +2030,13 @@
         <v>159787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>88</v>
@@ -2033,13 +2045,13 @@
         <v>88470</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>239</v>
@@ -2048,13 +2060,13 @@
         <v>248258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2081,13 @@
         <v>9737</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2084,13 +2096,13 @@
         <v>2008</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>12</v>
@@ -2099,13 +2111,13 @@
         <v>11745</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2132,13 @@
         <v>6179</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2135,13 +2147,13 @@
         <v>3110</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2150,13 +2162,13 @@
         <v>9289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2186,13 +2198,13 @@
         <v>978</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2201,13 +2213,13 @@
         <v>978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2234,13 @@
         <v>175703</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>94</v>
@@ -2237,13 +2249,13 @@
         <v>94566</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>261</v>
@@ -2252,18 +2264,18 @@
         <v>270270</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2275,13 +2287,13 @@
         <v>191371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -2290,13 +2302,13 @@
         <v>112546</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>303</v>
@@ -2305,13 +2317,13 @@
         <v>303917</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2338,13 @@
         <v>17046</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -2341,13 +2353,13 @@
         <v>17132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -2356,13 +2368,13 @@
         <v>34178</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2389,13 @@
         <v>9684</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2392,13 +2404,13 @@
         <v>3055</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2407,13 +2419,13 @@
         <v>12740</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2440,13 @@
         <v>4453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2443,13 +2455,13 @@
         <v>3352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2458,13 +2470,13 @@
         <v>7805</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2491,13 @@
         <v>222554</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2494,13 +2506,13 @@
         <v>136085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>355</v>
@@ -2509,18 +2521,18 @@
         <v>358639</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2532,13 +2544,13 @@
         <v>107112</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -2547,13 +2559,13 @@
         <v>43750</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>146</v>
@@ -2562,13 +2574,13 @@
         <v>150862</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2595,13 @@
         <v>3608</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2598,13 +2610,13 @@
         <v>1020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2613,13 +2625,13 @@
         <v>4627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2634,13 +2646,13 @@
         <v>854</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2649,13 +2661,13 @@
         <v>4658</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2664,13 +2676,13 @@
         <v>5512</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2697,13 @@
         <v>1457</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2700,13 +2712,13 @@
         <v>999</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2715,13 +2727,13 @@
         <v>2456</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2748,13 @@
         <v>113031</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -2751,13 +2763,13 @@
         <v>50426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>158</v>
@@ -2766,18 +2778,18 @@
         <v>163457</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2789,13 +2801,13 @@
         <v>132281</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
@@ -2804,13 +2816,13 @@
         <v>70857</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>195</v>
@@ -2819,13 +2831,13 @@
         <v>203138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,13 +2852,13 @@
         <v>13433</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2855,13 +2867,13 @@
         <v>11013</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -2870,13 +2882,13 @@
         <v>24446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2903,13 @@
         <v>7259</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2906,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -2921,13 +2933,13 @@
         <v>7259</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2954,13 @@
         <v>3044</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2957,13 +2969,13 @@
         <v>947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2972,13 +2984,13 @@
         <v>3991</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3005,13 @@
         <v>156017</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
         <v>80</v>
@@ -3008,13 +3020,13 @@
         <v>82817</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
         <v>230</v>
@@ -3023,18 +3035,18 @@
         <v>238834</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3046,13 +3058,13 @@
         <v>289148</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>149</v>
@@ -3061,13 +3073,13 @@
         <v>161481</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M34" s="7">
         <v>425</v>
@@ -3076,13 +3088,13 @@
         <v>450630</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3109,13 @@
         <v>29239</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -3112,13 +3124,13 @@
         <v>9051</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>34</v>
@@ -3127,7 +3139,7 @@
         <v>38290</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>227</v>
@@ -3151,10 +3163,10 @@
         <v>229</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3163,13 +3175,13 @@
         <v>5693</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -3178,13 +3190,13 @@
         <v>13860</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3211,13 @@
         <v>7649</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3214,13 +3226,13 @@
         <v>3420</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -3229,13 +3241,13 @@
         <v>11069</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3262,13 @@
         <v>334204</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" s="7">
         <v>167</v>
@@ -3265,13 +3277,13 @@
         <v>179645</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M38" s="7">
         <v>483</v>
@@ -3280,18 +3292,18 @@
         <v>513849</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3303,13 +3315,13 @@
         <v>393111</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H39" s="7">
         <v>176</v>
@@ -3318,13 +3330,13 @@
         <v>184423</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M39" s="7">
         <v>555</v>
@@ -3333,13 +3345,13 @@
         <v>577535</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3366,13 @@
         <v>37237</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H40" s="7">
         <v>29</v>
@@ -3369,13 +3381,13 @@
         <v>29522</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M40" s="7">
         <v>68</v>
@@ -3384,13 +3396,13 @@
         <v>66759</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3417,13 @@
         <v>15089</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H41" s="7">
         <v>11</v>
@@ -3423,10 +3435,10 @@
         <v>31</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M41" s="7">
         <v>26</v>
@@ -3435,13 +3447,13 @@
         <v>26795</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3468,13 @@
         <v>18849</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H42" s="7">
         <v>9</v>
@@ -3471,13 +3483,13 @@
         <v>9459</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M42" s="7">
         <v>27</v>
@@ -3486,13 +3498,13 @@
         <v>28309</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3519,13 @@
         <v>464286</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H43" s="7">
         <v>225</v>
@@ -3522,13 +3534,13 @@
         <v>235111</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M43" s="7">
         <v>676</v>
@@ -3537,13 +3549,13 @@
         <v>699398</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3572,13 @@
         <v>1627279</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H44" s="7">
         <v>817</v>
@@ -3575,13 +3587,13 @@
         <v>852811</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M44" s="7">
         <v>2376</v>
@@ -3590,13 +3602,13 @@
         <v>2480090</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3623,13 @@
         <v>164816</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -3626,13 +3638,13 @@
         <v>104429</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M45" s="7">
         <v>260</v>
@@ -3641,13 +3653,13 @@
         <v>269245</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3674,13 @@
         <v>64821</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="H46" s="7">
         <v>37</v>
@@ -3677,13 +3689,13 @@
         <v>39115</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="M46" s="7">
         <v>99</v>
@@ -3692,13 +3704,13 @@
         <v>103936</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3725,13 @@
         <v>43719</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H47" s="7">
         <v>21</v>
@@ -3728,13 +3740,13 @@
         <v>21312</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="M47" s="7">
         <v>60</v>
@@ -3743,13 +3755,13 @@
         <v>65032</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3776,13 @@
         <v>1900635</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" s="7">
         <v>975</v>
@@ -3779,13 +3791,13 @@
         <v>1017668</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M48" s="7">
         <v>2795</v>
@@ -3794,18 +3806,18 @@
         <v>2918303</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FEB53EE-D7BF-499F-8CA3-19CE85853438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{719F2E55-902F-4FCB-9BDC-CC289C69BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{945E91D5-00A7-4665-A19B-3153AFDF7C1E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6774A762-D0F8-40FD-B6DD-5925FE6FD5CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="316">
   <si>
     <t>Población según tener que llevarse trabajo a casa durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,93%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>84,64%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,880 +104,883 @@
     <t>8,43%</t>
   </si>
   <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>87,51%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1392,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE5FE97-7AD9-4C0C-A5D7-76B91F42EF95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BF6842-0A5D-4E47-A1B4-D6F756FBB9B0}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2135,10 +2138,10 @@
         <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2147,13 +2150,13 @@
         <v>3110</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -2162,13 +2165,13 @@
         <v>9289</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,7 +2192,7 @@
         <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2198,13 +2201,13 @@
         <v>978</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -2213,13 +2216,13 @@
         <v>978</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,7 +2278,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2287,13 +2290,13 @@
         <v>191371</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -2302,13 +2305,13 @@
         <v>112546</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>303</v>
@@ -2317,13 +2320,13 @@
         <v>303917</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2341,13 @@
         <v>17046</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -2353,13 +2356,13 @@
         <v>17132</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>34</v>
@@ -2368,13 +2371,13 @@
         <v>34178</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,10 +2395,10 @@
         <v>100</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2404,13 +2407,13 @@
         <v>3055</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2419,13 +2422,13 @@
         <v>12740</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2443,13 @@
         <v>4453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2455,13 +2458,13 @@
         <v>3352</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2470,13 +2473,13 @@
         <v>7805</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,7 +2535,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2544,13 +2547,13 @@
         <v>107112</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -2559,13 +2562,13 @@
         <v>43750</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>146</v>
@@ -2574,13 +2577,13 @@
         <v>150862</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2598,13 @@
         <v>3608</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2610,13 +2613,13 @@
         <v>1020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2625,13 +2628,13 @@
         <v>4627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2649,13 @@
         <v>854</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2661,13 +2664,13 @@
         <v>4658</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2676,13 +2679,13 @@
         <v>5512</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2700,13 @@
         <v>1457</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2712,13 +2715,13 @@
         <v>999</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2727,13 +2730,13 @@
         <v>2456</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,7 +2792,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2801,13 +2804,13 @@
         <v>132281</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
@@ -2816,13 +2819,13 @@
         <v>70857</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>195</v>
@@ -2831,13 +2834,13 @@
         <v>203138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2855,13 @@
         <v>13433</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -2867,13 +2870,13 @@
         <v>11013</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>24</v>
@@ -2882,13 +2885,13 @@
         <v>24446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2906,13 @@
         <v>7259</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2924,7 +2927,7 @@
         <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -2933,13 +2936,13 @@
         <v>7259</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2957,13 @@
         <v>3044</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2969,13 +2972,13 @@
         <v>947</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2984,13 +2987,13 @@
         <v>3991</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,7 +3049,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3058,13 +3061,13 @@
         <v>289148</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>149</v>
@@ -3073,13 +3076,13 @@
         <v>161481</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M34" s="7">
         <v>425</v>
@@ -3088,13 +3091,13 @@
         <v>450630</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3112,13 @@
         <v>29239</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -3124,13 +3127,13 @@
         <v>9051</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" s="7">
         <v>34</v>
@@ -3139,13 +3142,13 @@
         <v>38290</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3163,13 @@
         <v>8167</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3175,13 +3178,13 @@
         <v>5693</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -3190,13 +3193,13 @@
         <v>13860</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3214,13 @@
         <v>7649</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3226,13 +3229,13 @@
         <v>3420</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -3241,13 +3244,13 @@
         <v>11069</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3306,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3315,13 +3318,13 @@
         <v>393111</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H39" s="7">
         <v>176</v>
@@ -3330,13 +3333,13 @@
         <v>184423</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M39" s="7">
         <v>555</v>
@@ -3345,13 +3348,13 @@
         <v>577535</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3369,13 @@
         <v>37237</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H40" s="7">
         <v>29</v>
@@ -3381,13 +3384,13 @@
         <v>29522</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M40" s="7">
         <v>68</v>
@@ -3396,13 +3399,13 @@
         <v>66759</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3420,13 @@
         <v>15089</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H41" s="7">
         <v>11</v>
@@ -3435,10 +3438,10 @@
         <v>31</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M41" s="7">
         <v>26</v>
@@ -3447,13 +3450,13 @@
         <v>26795</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3471,13 @@
         <v>18849</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H42" s="7">
         <v>9</v>
@@ -3483,13 +3486,13 @@
         <v>9459</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M42" s="7">
         <v>27</v>
@@ -3498,13 +3501,13 @@
         <v>28309</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3575,13 @@
         <v>1627279</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="H44" s="7">
         <v>817</v>
@@ -3587,13 +3590,13 @@
         <v>852811</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M44" s="7">
         <v>2376</v>
@@ -3602,13 +3605,13 @@
         <v>2480090</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3626,13 @@
         <v>164816</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H45" s="7">
         <v>100</v>
@@ -3638,7 +3641,7 @@
         <v>104429</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>294</v>
@@ -3680,7 +3683,7 @@
         <v>300</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="H46" s="7">
         <v>37</v>
@@ -3689,13 +3692,13 @@
         <v>39115</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="M46" s="7">
         <v>99</v>
@@ -3704,13 +3707,13 @@
         <v>103936</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3728,13 @@
         <v>43719</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H47" s="7">
         <v>21</v>
@@ -3740,13 +3743,13 @@
         <v>21312</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M47" s="7">
         <v>60</v>
@@ -3755,13 +3758,13 @@
         <v>65032</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3820,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6519-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6519-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719F2E55-902F-4FCB-9BDC-CC289C69BD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFA3512-C068-4FAD-9A30-039700F7BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6774A762-D0F8-40FD-B6DD-5925FE6FD5CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1BF6AA5B-E68E-49CC-BB32-68B67D5D2F4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BF6842-0A5D-4E47-A1B4-D6F756FBB9B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BE16DC-DD55-429F-8F2E-E078CAD4F9D4}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
